--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999980574739</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.9999999980574739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.02557985863272075</v>
+        <v>1.164838593814021E-05</v>
       </c>
       <c r="E3">
-        <v>0.02557985863272075</v>
+        <v>1.164838593814021E-05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.6202935693853086</v>
+        <v>3.840877913516637E-11</v>
       </c>
       <c r="E4">
-        <v>0.6202935693853086</v>
+        <v>3.840877913516637E-11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9997658370084836</v>
+        <v>0.9924652230832347</v>
       </c>
       <c r="E5">
-        <v>0.9997658370084836</v>
+        <v>0.9924652230832347</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9994855584678929</v>
+        <v>0.9994793927500215</v>
       </c>
       <c r="E6">
-        <v>0.9994855584678929</v>
+        <v>0.9994793927500215</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.05199732789651879</v>
+        <v>0.9889500467406946</v>
       </c>
       <c r="E7">
-        <v>0.9480026721034812</v>
+        <v>0.01104995325930536</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999513649</v>
+        <v>0.9999999999996232</v>
       </c>
       <c r="E9">
-        <v>4.863509595054438E-11</v>
+        <v>3.768096945577781E-13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999999963269</v>
+        <v>0.9999054824794873</v>
       </c>
       <c r="E11">
-        <v>3.673061854669868E-12</v>
+        <v>9.451752051270468E-05</v>
       </c>
       <c r="F11">
-        <v>3.994203090667725</v>
+        <v>5.133747577667236</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
